--- a/data/trans_bre/P37A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-17,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,24</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-20,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,78%</t>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-9,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 8,82</t>
+          <t>-36,91; 3,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 9,17</t>
+          <t>-9,15; 31,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 1,29</t>
+          <t>-26,92; 12,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 12,46</t>
+          <t>-28,67; 14,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 12,68</t>
+          <t>-40,9; 3,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 1,47</t>
+          <t>-10,84; 63,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-30,62; 18,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-34,28; 22,72</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>-16,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,49</t>
+          <t>-27,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,35</t>
+          <t>-14,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-39,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,8%</t>
+          <t>-32,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-47,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -7,37</t>
+          <t>-34,44; -1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,66; -6,99</t>
+          <t>-44,92; -9,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 9,07</t>
+          <t>-37,58; 14,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,99; -8,81</t>
+          <t>-58,77; -19,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -9,09</t>
+          <t>-37,22; -2,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 11,89</t>
+          <t>-49,72; -13,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,13; 32,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-67,2; -26,36</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>-13,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>-10,88%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 11,21</t>
+          <t>-11,11; 20,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 4,61</t>
+          <t>-23,29; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 7,84</t>
+          <t>-27,64; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 17,96</t>
+          <t>-17,89; 14,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 6,87</t>
+          <t>-14,63; 38,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 12,09</t>
+          <t>-30,32; 11,52</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-34,5; 4,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; 27,54</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,95</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>-7,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>-14,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,57%</t>
+          <t>-12,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-15,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-20,43%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -0,07</t>
+          <t>-21,96; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -1,19</t>
+          <t>-25,46; 4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; -5,49</t>
+          <t>-21,03; 5,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -0,11</t>
+          <t>-27,81; -0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,51; -1,82</t>
+          <t>-27,87; 7,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,89; -7,81</t>
+          <t>-33,66; 6,39</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-26,48; 9,33</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,65; -0,87</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 11,5</t>
+          <t>-6,45; 28,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 2,58</t>
+          <t>-12,77; 14,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 3,66</t>
+          <t>-11,38; 14,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 16,75</t>
+          <t>-26,52; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 3,32</t>
+          <t>-6,98; 46,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 4,26</t>
+          <t>-14,13; 18,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; 19,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,94; 3,35</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-15,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-19,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>-15,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,61%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 2,43</t>
+          <t>-21,19; 6,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 1,45</t>
+          <t>-28,0; -1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -4,73</t>
+          <t>-37,02; -4,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 2,59</t>
+          <t>-39,12; 6,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 1,53</t>
+          <t>-21,59; 7,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; -4,89</t>
+          <t>-29,62; -2,73</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-38,66; -5,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-43,97; 6,87</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-13,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-8,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -2,65</t>
+          <t>-13,48; 0,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -5,4</t>
+          <t>-16,58; -3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -4,94</t>
+          <t>-16,96; -1,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -3,47</t>
+          <t>-22,08; -6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -6,95</t>
+          <t>-16,26; 0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -6,34</t>
+          <t>-20,64; -4,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; -2,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-27,32; -8,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P37A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-17,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-20,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-17.73956014716218</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.56441553428615</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.703826586565434</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.695926563020929</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2162893029392743</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1589191980470591</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1188679918477669</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1244322562405156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,91; 3,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 31,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-26,92; 12,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; 14,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-40,9; 3,85</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 63,87</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-30,62; 18,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-34,28; 22,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-39.53523657579345</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.20564293338571</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-28.72469370997485</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-31.01572150622269</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4430341356440291</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1263606885474837</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3258921524473209</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3572849533012558</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.685674629505861</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.16447678128358</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.341751148534524</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.41408189264331</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.02599557259802604</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6684349635412825</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1266750101100196</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1698763179043224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-16,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-27,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-14,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-39,71</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-19,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-32,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-47,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-34,44; -1,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,92; -9,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,58; 14,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-58,77; -19,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; -2,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-49,72; -13,15</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-46,13; 32,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-67,2; -26,36</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-13.74380263554439</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-25.89896582677821</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-14.36682427854811</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-39.68232875408297</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1621776584886988</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3112322500206348</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2170631921958153</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4733526507910349</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,92</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-18,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-33.10761139157434</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-44.09243302934798</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-36.99737361820205</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-59.3988876607453</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3583625319829794</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4939164660374999</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4598330176426447</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.66563285413605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 20,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-23,29; 7,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,64; 3,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,89; 14,43</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,63; 38,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-30,32; 11,52</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,5; 4,54</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-24,02; 27,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.270842219405836</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-6.60772285944655</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.56795244249686</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-19.90792608481058</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.04548115621854079</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.09690549531593058</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3124863548170702</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.2575551234972033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,57</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-12,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-10,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-20,43%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.706325626669015</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.928411514865386</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-14.84048786034968</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.691878370705913</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.04049010530724709</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1119143687388169</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1967014583689572</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.0266390856772418</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-21,96; 4,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-25,46; 4,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 5,94</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-27,81; -0,33</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-27,87; 7,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-33,66; 6,39</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-26,48; 9,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-36,65; -0,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.38256502373522</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.38669492014274</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-28.73683866538218</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.81466579132413</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1872108580527432</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2895774048397654</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3574448816273097</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2378526292379566</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.05755151358139</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.919985832240563</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.718199209576757</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.5833980862265</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3338719398269777</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1127151362316088</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.02337483375456048</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2839562522137647</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,5</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-13,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 28,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 14,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 14,7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-26,52; 2,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 46,41</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 18,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,93; 19,22</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,94; 3,35</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-8.518757344157645</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-12.09190697202408</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-8.828609314094937</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-15.15657665633832</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1142982421704551</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1681520188523266</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1195208828871659</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2102646660899594</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,33</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-19,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-10,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-6,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-15,85%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-20,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-11,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-21.63678201195347</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-26.37151358994861</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-21.1678910776753</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-28.16568942836026</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2680469167694114</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3450834842904175</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.264791234552722</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3690649169150427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; 6,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-28,0; -1,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-37,02; -4,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,12; 6,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 7,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-29,62; -2,73</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-38,66; -5,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-43,97; 6,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.565757501476528</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.94965730020761</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.773896269981154</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.7609989116075525</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.0792387011670254</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04332391684466103</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0865020888263055</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.01681947856534136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-10,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-13,91</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-8,44%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-13,32%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-17,94%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.755517633825825</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.279384471387235</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.53165137923087</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-12.36166994781925</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.0879414384539884</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.01510686000808415</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.03066581341676314</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1471527376239988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; 0,51</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-16,58; -3,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -1,59</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; -6,46</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 0,45</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; -4,07</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-20,96; -2,3</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-27,32; -8,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.578585797081859</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.69651967311022</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.83687190217843</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-27.62123818373948</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.08501049150479462</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1529939858650065</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.1319048065181319</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3171126056800535</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>29.48720351124329</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.55400758095773</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>15.40726285302986</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.973105865825701</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.4990355124560952</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.163976458295164</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.2021706988136513</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.02249434786550723</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-5.56556251769077</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-14.63740640990886</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-18.66126048322229</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-6.18625864973712</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.06042420695713139</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1540662324179524</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.196430541679835</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.07001441725593596</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-18.9957924334222</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-28.28453813273801</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-37.23955871466062</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-31.90938967530726</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1997330535373517</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.291018963816413</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.3886262016919356</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.3643205941057197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>7.903751849789215</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-1.969717801166085</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-4.119598837829185</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.139023111983704</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.09295186096612985</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.02163737680149375</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>-0.04682129221217799</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.1108987368841027</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.686545114825693</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-9.872948267723524</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-10.73555666924985</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-13.75548942069411</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.08513317354187629</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.127216758174854</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1384633049143076</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1767903276405036</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-13.976670934895</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-16.2339740098352</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-17.3226459501678</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-21.82885686846663</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1708699183181401</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2025834006840121</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.215003715334266</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2699601595820441</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.1975527501534259</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.595236000201206</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-2.558873236474655</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-6.289334138713065</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.001848196459614075</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.03559798217449631</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.0360649661385799</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>-0.08574209667266021</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
